--- a/Testdata/TC_56.xlsx
+++ b/Testdata/TC_56.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>sjEAAB+LCAAAAAAAAAPtWltvG8cV/isLPiVAqdklJVsSxhvwIslESdEQ6dpKUQTL3aG49XKX3YskvqVAixRpiqIonCK9ok8pCtQ12gRI7V7+S2DJ7lP/Qs/M7OzMLpeWKKtIAygwYs65zJw5c+ac74wXv3M69bRjEkZu4N+pGGt6RSO+HTiuf3SnksTjqnGr8o6Jd05t4t2zQmtKYhDWQMuPtk8j905lEsezbYROTk7WTuprQXiEarpuoIe97sCekKlVdf0otnybVDIt52KtiolbzrRHYsuxYotr3ql0Bp21FnHtNtB6lm8dkXCtmUSuT6Jox4/d2CUR1QyJFZNWu/ctvjGztnZrzcBogS4lm4nrOVwuJ8npqRwsS4bulJg13dis6pvVujE09G1jY3tja+32+ua7QjETxF0rigckPHZtRhjE1nTG1PXNumHoxsbGFkalQjCXdICJ+55zQI7diDgt4nnRSh5B6QE27Bh2vZozdYwU3XSiq5uwF1qzydCNPbKaGQe9pjb1U1vkJCbeDUJig/+uZNI+OemHqVuHsy5whxM3jOdta77yXPcjEvZn1EmrqZq4HfhxwyNhfH8GZ00cCAVgmHGYEIyWMKVS241s+O36CXHMseVFqlKOiR8E4aNoZtlkH+4xonOc+F5gORBwsRvFrh3JCRY4+F4YzGBKWL0ZeM4uTJuaWMLIpu744GO6bjMIHhVnzzMxO1Z2wHCoUysW4gt0PJgEJ33fmw+SUWSH7og47aaQLuVheiNT7VYSxcEUrJAkzGkKZQ7/wQ0sknGb2O7U8u554MXIrMMsOQJuJHEwduNW4CVTP3NngYofwI6G5DTbYTbGfThdnzo98Du+kOduLmXlFQ6Ck2zNRQZzgkJuRLYIskVGUbgNNHF8ixx2InSXu64HBUI9C4Waj4rBhJC4NCQ4B9NcuEtLjtmc0zUxkhQMkQnhDVTT2Nq6XdUN+DPU9W32B1bO2HjHd9gPKDC3qkaNJm0pJ5h4P5n2R3CFj9meTAN4BRKGXXhNz/IfAfWBG0/2G8L6Eg7me14qv8jDcFlnnjVn5MwvKg13fNtLHMJzQMcfs6CktvFjXMrGC6Qu3GoTW/58OJ9BKo7c7Rh+3KlAcd6O4hDKf8W0g8SPwzlNFhilohfpRMnIZwtY3qV1xiH5XgKoY76b+HYrcC6/msO9c99348tbGCQhz4CXV2Heo7kwidqEZhWW5y+tb6+ypyhcSXzqk2ngu/blvQ1OptY7V9hIJG6VooGWxFabjK3EA1wTQ/k5kpWlQMaN6FFRRiXh+6EnkoNJUWMEsNF2pms2FFYKjdbsYEoJCNDagwFGqjxFBzbZ8Y+6ln+UQP3NLmCRnqUmWjqGoeVHdDtZuS1kqXIhLC40hwEmv+X9hHmM3/IAuBgV5PCQTGdBaHk9cIy7m55PiiWgTPeseJKOIO17xBZORlI108pbJgy/SIzlb74NejPSfFIgMiG6Fw5QpYykYbrLHsSv17I8dxTy9COqXBkPDkwCJ5Go6OZWBFHiDKBJgcL0TTKnyFUOUjoLWUMweADTjGMODtY3axt6vQZFn44x2/EBsTxtB6I+JlrHPyZRPAW1be2ARK4Dv1zL29bukhFxoVowF6X5emVtVQ/vioTITGmAvXlKXgBK8ZEL+XZRMONIBfOQWKE3VwT5VruBDXLnP/rX2a+fvnj26fmHj199/oP//P2XL/7x07MnP4Qf53/569lHv+Db5MJ4aI08wgwaNjc39fo6xFlGwtS5iKFGJ7FjRjs8ZGAxG+O06WGD1k6ntddtsnySEYU6z72I9lPzIJHDAd8EW4gdKRKRwEXMochP6TjHVXK5SfubY5KXVvnLFLkvXj7/9OXzPy3VTh2WwywbFItcjFkMY0Euwyy0b+RtgehK16v6RrVWU4QLMvgAmmvoAjI/dRyzbuhbeq2uG1kud7JALhMqstKZhtYRKuhxUovjiCwE1LFgssAfwhXJ2PwqKIM0RD//8as/P85Jpd5NKflZwDhW7+liSAzY1PsHQ23Qv3/Q2tGGOwMaJ5KnyPHJXyOcrp7dp1xQ+X5ied/QiE8fVLQKNAsVLRhrxLIn2hxuonIPc8FWRuULXXHKopV7YZDM+IkoCpJaIpllk1KNklzDeMyfC0lHskrEua1nf/usTCHdSFsiv+xtQKXhHIeTFH56az/554svPnjx7Nn505+dffH93AzpOlnLDHEOt0kdZmEPKS+tNwUKfjBgznykv6fUl5RIO457gevHkWncYs1GOsKgatDZ2N+4M4WSxyZm/gJ6gYLvWtHOaZxebHMfozwB7JxZUG0D2ZZlBJ7DpV///Zvfnv/qs/OPn7764I9nH/7h7KOPXz7/3asnv+e37vzx0/OfPEmzfLEQMFtos8dBoMaeDmyN3kaN1m7ty/d/rvlBrAHk0BKWkb58/xNlMmooAydyZoB0mSF5ExZEVWWqpymmZDbk9DIVDgBatITVM4m0iAUz15aLvFulU9F7xxhvdYbVJCJaAGjqbdhJXlgqX1YvVeEl9d5tvWbUUi63hm5hZEWK6/e8YAQgQzBYb14QyWm9XkHKsvX2uv1moytFuBH90IFWXqcPDPQHFpCSlpROJEYi1BQKcAH42YlHn1MWxBZZ2cxKGkPpu8S44dD0Z+o6a/zz9TEngVtJGHJA5Kfv3INkBmBYvF4t57MnPQX/7nOsqiJiOe6083wYK1wohHk2JTA+S00pi6epTkSfQDic3aeukUPg5Z4BwR3pUzZHWseAK0NE885OGAZhafKRHCHWAyQNGQVJj2cy7Ew56nbkWQmCSHhfOfrWvt3t77319nfeDIXLWb4maDy/7RtUfoPKb1D5DSq/QeUqBjeWo3LjvRrZXHc2b69XybimV9fr+q3qFiH1at1eJ7Ztb9WdmvMVAHZxaiUP+UttuHyVukoAvC4mS870ulPqtbyqvT6zXpDxLu710GtO7aYDu+nArrsDMxY7MP5PBYV/QICE5Ji9xvDufmMIcBGyEcURSlljGJL+w4xS6eSnPhmGKwJ1hZpZILNCI3TjCczg2v0Z4U/9EaSPBblMlTZEUkkr02I9U7H9TK9hwBXIVVsQxIE3yuUaVEirxbG48SodKQgeKWgclWFvlAPb6I2BNVoKiJdzhKUyKZc21SU5u1RuGQwuFb4YBhexK6NcHtmiXGJHi8hVktBSUIoWkCcqx4JLyAsqWfiXEsuiKivMpUSxgAKUEK/LaBFfoet51EQqFtHfCA5dvjoihYAWq1WehHLlBRVLiUpASt5HJVm+QEP5NI3SrIS+zo9h6dr/z69h6CrvX+j6nrmUItN2x+NDgFEP5Xc6gsAtlrPQAUalhRkplVuJjfRjnusNFlHmy1g3b6qrvqlevnX8nzy3IvmZhERAbeIBYlv1s1Wh3QuOr6wLYbGqaifqe07q59W+9MjcIidQvy2mMfSmnxbzOGyEIeAK+iniyt8Ci++EDiz/aEVr+FaYIv3gBlYXZd8No/ghrZ/pL045zCiHHHM9NGscWD3k40PorTkBBJA6O8qZKW51zL/wDryuO3VX/ApHF1c/Pwn4cjbjEKqzWqTQPnKfnEI3rswA5Xb0Xajs/EO1VWbjAQu9Q6ZPv6mM3KNJvKpht0cWcchIr9ojUquuO/omv/+GAf+37FpN1zfoF5np5JBUXHKy4iJIHJhsx8z/AoKD6tmyMQAA</t>
+          <t>hzMAAB+LCAAAAAAAAAPtW1tv48YV/iuEnhKg8pCU5bWMWQayZDtCZcuwtN11XgKKHNmsKVLhxbbeUqBFijRFURSbIr2iTykKdLtoEyDd7eW/BGvv9ql/oWcuJIcUtTa9LtICXhhYzrnNzJkz53wzHuN3zqeuckqC0PG9+zVtRa0pxLN82/GO7tfiaFLX1mrvGHjr3CLuvhmYUxKBsAJaXrhxHjr3a8dRNNtA6OzsbOWsseIHR0hXVQ092u0PrWMyNeuOF0amZ5FaqmVfrVUzcMee7pLItM3I5Jr3a71hb6VDHKsLtF3TM49IsLIZh45HwnDLi5zIISHVDIgZkU539zt8Yoa+sraiYbRAzyQ3Y8e1uVxOktOFHHRLRs6UGLqqq3V1va6vjtTWhtba0O+tNLTGe4liKoj7ZhgNSXDqWIwwjMzpjKmr6/qq2tJa+j2MSoXAVuYAAw9c+4CcOiGxO8R1w0oeQWIB21YEs67mTBUjSVcYuvkQdgJzdjxyIpdUVd/2A2KBo27U9x45GwTCf6NZH7ijYyeI5l1zXtnWg5AEgxn1RjVVA3d9L2q7JIgezGBRiQ1rDgwjCmKC0RJmptR1Qgu+HS8mtjEx3VBWyjHxQz84CWemRfZgwyJq48xzfdOGyIqcMHKsMDOwwMH7gT8Dk9D7pu/a22BWDLGEkZrueeBj2u+m758UreeZmAUBCwdY1KkZJeILdDw89s8GnjsfxuPQCpwxsbubiXQpD9OtJ7Q7cRj5UxhFRsKcJlHm8A+2WpGMu8Rypqa774IXQ6MBVnIE3I4jf+JEHd+Np17qzgIVP4QZjch5OsO0jQewuh51uu/1vESeu7mUlVc48M/SPhcZzAkSuR1aSZAtMorCXaAly7fIYStCZ7ntuFAJ5LWQqPmoGB4TEpWGBOdgmvS2aW0xNue0T4wyCobIhPAGKqRNda0OP7o6UtUN9gM9p2y85dmZnKbXG5oklzDxXjwdjGELn7I5GRrwCiQMs3A3XdM7AepDJzreayejL+FgPuel8os8DJt15ppzRk79ItNwz7Pc2CY8B/S8CQtKOja+jEvZeIHUh11tYNObj+YzyLmhsxHBx/0aVOGNMAqgztcMy4+9KJjTZIGREL1KJ4zHHuvAdK+tMwnIBzHAi/l27Fkd375+bzb3zgPPia4/Qj8OeAa8vgrzHs2FcdglNKuwPH9tfavKnMKgkvjUI1Pfc6zrexucTEdv32AiYbKrJA20JLa6ZGLGLgCYCMrPUVZZCmTcDk+KMjIJPwjcJDkYFB6GgA8te7piQWGlGGjF8qeUgACWPRxiJMtTdGCRLe+ob3pHMdTfdAMW6WlqoqVjFJheSKeTlttClioXwsmG5jDA4Lt8EDOP8V3uAxejghwekenMD0x3FxzjbIv1EVgCyvSuGR2LFqR9l1iJk1GmmmrlR5YM/Coxlr/5NOjOEPmkQGRCdC4ciWYyGQ3TWe5C/Lod03XGAU8/SZUr48GCZcApSVR0chVBVLIGcBqBwvRtMqcQNWsIOgtZLWHwAKYZxxgerK7rTbWhQ9GnbcxmfEBMV9mCqI+I0vNOSRhNQW1DOSChY8OXY7obyrtkTByoFsxFIl9X1pb18HaSENlQ2jDePCUvAKX4yIF8uyiYcjIF45CYgTuXBPlU+74Fcpc//OfFr56+ePb55cePX335/X//7Rcv/v6Tiyc/gI/LP//l4pOf82lyYTwyxy5hAxptrq+rjVWIs5SEqXMRQ412bEWMdnjIwGLaxuJ0wxqdrV5np7/J8klKTNR57kX04DT346w55JNgHbElRUkkcBFjlOQn0c5xpVxu0IPMKclLy/xlitwXL59//vL5H5dqC4dloERrtZoUi6jaVZhF0xbkUsxCD4j8WCCOn9pqXW3WdV0SLsjgAzhFwykg9VPPNhqa2lL1hqqludxOA7lMqMgSlkbmESrocVKH44g0BOR2wmSBP4ItkrL5VpAaIkS//NGrPz3OSQnvCkreCgyO1XvaGUoazPTewUgZDh4cdLaU0daQxknGk+S48dcIi97T/ZQLKs+LTfdbCvHozYlSg8NCTfEnCjGtY2UOO1Hah7lgK6Pyjm5osjjKncCPZ3xFJIWMWiKZZpNSjZJcw3jMnwtJJ2OViPOxXvz1izIFMZFuhvyMg91NZeqlccloOMfhJIkvdu1n/3jx1Ucvnj27fPrTi6++l7Mg+kmPzBDnsJvkZhr2kPJEvSlQ8MMhc+aJ+r5UXwSRnjj2fceLQkNbY4cN0cKgqlFr7H/cm0LJY4aZv4BeoOB3zXDrPBIb29jDKE+Acc5MqLZ+dixLCTyHZ379169/c/nLLy4/ffrqoz9cfPz7i08+ffn8t6+e/I7vusvHTy9//ERk+WIhYGOhhz0OAhV2dWApdDcqtHYrX3/4M8XzIwUghxKzjPT1h59JxuhAGTjJLAOkSweSH8KCqKxM9RRpKOkYcnqpCgcAHVrCGqmEKGL+zLGyTt6rU1N03zHGW71RPQ6J4gOaehtmkhfOlK+rJ1R4Sd2/p+qaLrh8NHQKYzOUXL/j+mMAGQmDnc0LIjmt1ytksqy/nf5gs93PRPggBoENR3mVXjDQD9wLE1CZhJdEAS6APSt26RXKgtgiCydfUupC4i5i0rZpyjNUVdXq7EcqczkJ3ImDgIMgT1xiD+MZAODkxmo5n13jSZh3j+NTGQVn7V43z4e2xIXil2dTAuOzdCRYPDX1QnrtwSHsHnVN1gRe7uoP3CHuqTm6OgUsGSCaa7aCwA9KE07GScR2AT1DFkGZx1MZRLvkSNvO1iohJEnuDnHfIe47xH2HuO8Q9x3i/qYQt7YccWvvm/bqWqtJrLo+vqfV4ZvU19XVVr25vmq17o3H+mpz7RsA48mqlVzSLx3D9avTTQLgdTFZsqa3nVJvpX6/PrNekfGuPseh16za3enq7nR126crLT1dJeg85L8GKPxyABKSbey2R+/utUf9wQ5kI4ojpLIGxLfepr90kSpd9l4nxXBFQC5R0xFkWaEdONExWHCswYzwa/wQ0seCXKpKDz6ZklKmxc5GxaOl2IY+VyA3PWogDrhRLtegQlottpMdL9ORhNyRhMZRGfZGObCN3hhYo6WAeDknGWmWlEsPzyU5u1RuGQwuFb4aBhexK6NcH9miXGJHi8g1I6GloBQtIE9UjgWXkBdU0vAvJZZFVVqYS4lJBxJQQrwuo0V8hW7nwhLJWER9Izh0/eqIJAJarFZ5EsqVF1QsJTIBSXkflWT5Ag3l0zQSWQn9v110ib7/l2+60E3uttDtXWFJhaXrTCaHAJ0eZe9uEgIfcWaFNjAqLcZIqtZSbIjHObcbLElpL2Pd3ZdWvS+9/nHxv3KVirJnDxnq6RIXUFrVZ6iJ9q5/emNdCIuqqr1w4NrCz9VebqRuyQzIj4JpDFUdTDsIADXQR4SVX/H2He+kV232xthsqvbEIlbDGo+buqk1zcakaTdb662xblkAhZhRiuCpCXqkpc9gqnWi0Zwjq2dPlg5M76iiNe5gpkif9YCn2F4Vp7i0jbedIIwe0cIuvjjlMKUccjD4yNA54nvE24eGJggggOTOUG7USeqJ+Ptx3+07U6fi0x81yU95IxAGsxnHdlUXFA64e+Q8wkiyADhg/F2AHPx1XBVrfFfBoSbVT2wN43FlcyhR3gc+DaybaW/ZABlvrs0eYzvuGwyAAcWbmuh5oXN0HFVdV73VapA1otf1iWXVV6FRB6A3rtvmpKWp6qRhN3X6ilYYh8LhkLOKndBy44Sx6VbXQ4U/pzH+A08GfIqHMwAA</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -103,6 +103,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -399,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +419,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Real Estate Investment: Residential: Hebei [LOG()]</t>
+          <t>Real Estate Investment: Residential: Hebei</t>
         </is>
       </c>
     </row>
@@ -558,7 +559,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -582,101 +583,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
-        <v>35765</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3271.34</v>
-      </c>
-      <c r="C13" s="6">
-        <v>8.092954965884701</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>36495</v>
-      </c>
-      <c r="B14" s="6">
-        <v>6384.48</v>
-      </c>
-      <c r="C14" s="6">
-        <v>8.761625324273099</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>36861</v>
-      </c>
-      <c r="B15" s="6">
-        <v>7111.74</v>
-      </c>
-      <c r="C15" s="6">
-        <v>8.869502218595221</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>37226</v>
-      </c>
-      <c r="B16" s="6">
-        <v>8354.02</v>
-      </c>
-      <c r="C16" s="6">
-        <v>9.030498139116981</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5">
-        <v>37591</v>
-      </c>
-      <c r="B17" s="6">
-        <v>10540.67</v>
-      </c>
-      <c r="C17" s="6">
-        <v>9.262996387437459</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5">
-        <v>37956</v>
-      </c>
-      <c r="B18" s="6">
-        <v>16421.36</v>
-      </c>
-      <c r="C18" s="6">
-        <v>9.706338205398721</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5">
-        <v>38322</v>
-      </c>
-      <c r="B19" s="6">
-        <v>22352.63</v>
-      </c>
-      <c r="C19" s="6">
-        <v>10.0146992664968</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5">
-        <v>38687</v>
-      </c>
-      <c r="B20" s="6">
-        <v>29205.22</v>
-      </c>
-      <c r="C20" s="6">
-        <v>10.2821027394027</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5">
+      <c r="A13" s="6">
         <v>39052</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B13" s="7">
         <v>37962.97</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C13" s="7">
         <v>10.5443664899162</v>
       </c>
     </row>
@@ -684,4 +597,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>13</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>13</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760A84CC-4178-458F-A3CC-541C53DDA0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_56.xlsx
+++ b/Testdata/TC_56.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>hzMAAB+LCAAAAAAAAAPtW1tv48YV/iuEnhKg8pCU5bWMWQayZDtCZcuwtN11XgKKHNmsKVLhxbbeUqBFijRFURSbIr2iTykKdLtoEyDd7eW/BGvv9ql/oWcuJIcUtTa9LtICXhhYzrnNzJkz53wzHuN3zqeuckqC0PG9+zVtRa0pxLN82/GO7tfiaFLX1mrvGHjr3CLuvhmYUxKBsAJaXrhxHjr3a8dRNNtA6OzsbOWsseIHR0hXVQ092u0PrWMyNeuOF0amZ5FaqmVfrVUzcMee7pLItM3I5Jr3a71hb6VDHKsLtF3TM49IsLIZh45HwnDLi5zIISHVDIgZkU539zt8Yoa+sraiYbRAzyQ3Y8e1uVxOktOFHHRLRs6UGLqqq3V1va6vjtTWhtba0O+tNLTGe4liKoj7ZhgNSXDqWIwwjMzpjKmr6/qq2tJa+j2MSoXAVuYAAw9c+4CcOiGxO8R1w0oeQWIB21YEs67mTBUjSVcYuvkQdgJzdjxyIpdUVd/2A2KBo27U9x45GwTCf6NZH7ijYyeI5l1zXtnWg5AEgxn1RjVVA3d9L2q7JIgezGBRiQ1rDgwjCmKC0RJmptR1Qgu+HS8mtjEx3VBWyjHxQz84CWemRfZgwyJq48xzfdOGyIqcMHKsMDOwwMH7gT8Dk9D7pu/a22BWDLGEkZrueeBj2u+m758UreeZmAUBCwdY1KkZJeILdDw89s8GnjsfxuPQCpwxsbubiXQpD9OtJ7Q7cRj5UxhFRsKcJlHm8A+2WpGMu8Rypqa774IXQ6MBVnIE3I4jf+JEHd+Np17qzgIVP4QZjch5OsO0jQewuh51uu/1vESeu7mUlVc48M/SPhcZzAkSuR1aSZAtMorCXaAly7fIYStCZ7ntuFAJ5LWQqPmoGB4TEpWGBOdgmvS2aW0xNue0T4wyCobIhPAGKqRNda0OP7o6UtUN9gM9p2y85dmZnKbXG5oklzDxXjwdjGELn7I5GRrwCiQMs3A3XdM7AepDJzreayejL+FgPuel8os8DJt15ppzRk79ItNwz7Pc2CY8B/S8CQtKOja+jEvZeIHUh11tYNObj+YzyLmhsxHBx/0aVOGNMAqgztcMy4+9KJjTZIGREL1KJ4zHHuvAdK+tMwnIBzHAi/l27Fkd375+bzb3zgPPia4/Qj8OeAa8vgrzHs2FcdglNKuwPH9tfavKnMKgkvjUI1Pfc6zrexucTEdv32AiYbKrJA20JLa6ZGLGLgCYCMrPUVZZCmTcDk+KMjIJPwjcJDkYFB6GgA8te7piQWGlGGjF8qeUgACWPRxiJMtTdGCRLe+ob3pHMdTfdAMW6WlqoqVjFJheSKeTlttClioXwsmG5jDA4Lt8EDOP8V3uAxejghwekenMD0x3FxzjbIv1EVgCyvSuGR2LFqR9l1iJk1GmmmrlR5YM/Coxlr/5NOjOEPmkQGRCdC4ciWYyGQ3TWe5C/Lod03XGAU8/SZUr48GCZcApSVR0chVBVLIGcBqBwvRtMqcQNWsIOgtZLWHwAKYZxxgerK7rTbWhQ9GnbcxmfEBMV9mCqI+I0vNOSRhNQW1DOSChY8OXY7obyrtkTByoFsxFIl9X1pb18HaSENlQ2jDePCUvAKX4yIF8uyiYcjIF45CYgTuXBPlU+74Fcpc//OfFr56+ePb55cePX335/X//7Rcv/v6Tiyc/gI/LP//l4pOf82lyYTwyxy5hAxptrq+rjVWIs5SEqXMRQ412bEWMdnjIwGLaxuJ0wxqdrV5np7/J8klKTNR57kX04DT346w55JNgHbElRUkkcBFjlOQn0c5xpVxu0IPMKclLy/xlitwXL59//vL5H5dqC4dloERrtZoUi6jaVZhF0xbkUsxCD4j8WCCOn9pqXW3WdV0SLsjgAzhFwykg9VPPNhqa2lL1hqqludxOA7lMqMgSlkbmESrocVKH44g0BOR2wmSBP4ItkrL5VpAaIkS//NGrPz3OSQnvCkreCgyO1XvaGUoazPTewUgZDh4cdLaU0daQxknGk+S48dcIi97T/ZQLKs+LTfdbCvHozYlSg8NCTfEnCjGtY2UOO1Hah7lgK6Pyjm5osjjKncCPZ3xFJIWMWiKZZpNSjZJcw3jMnwtJJ2OViPOxXvz1izIFMZFuhvyMg91NZeqlccloOMfhJIkvdu1n/3jx1Ucvnj27fPrTi6++l7Mg+kmPzBDnsJvkZhr2kPJEvSlQ8MMhc+aJ+r5UXwSRnjj2fceLQkNbY4cN0cKgqlFr7H/cm0LJY4aZv4BeoOB3zXDrPBIb29jDKE+Acc5MqLZ+dixLCTyHZ379169/c/nLLy4/ffrqoz9cfPz7i08+ffn8t6+e/I7vusvHTy9//ERk+WIhYGOhhz0OAhV2dWApdDcqtHYrX3/4M8XzIwUghxKzjPT1h59JxuhAGTjJLAOkSweSH8KCqKxM9RRpKOkYcnqpCgcAHVrCGqmEKGL+zLGyTt6rU1N03zHGW71RPQ6J4gOaehtmkhfOlK+rJ1R4Sd2/p+qaLrh8NHQKYzOUXL/j+mMAGQmDnc0LIjmt1ytksqy/nf5gs93PRPggBoENR3mVXjDQD9wLE1CZhJdEAS6APSt26RXKgtgiCydfUupC4i5i0rZpyjNUVdXq7EcqczkJ3ImDgIMgT1xiD+MZAODkxmo5n13jSZh3j+NTGQVn7V43z4e2xIXil2dTAuOzdCRYPDX1QnrtwSHsHnVN1gRe7uoP3CHuqTm6OgUsGSCaa7aCwA9KE07GScR2AT1DFkGZx1MZRLvkSNvO1iohJEnuDnHfIe47xH2HuO8Q9x3i/qYQt7YccWvvm/bqWqtJrLo+vqfV4ZvU19XVVr25vmq17o3H+mpz7RsA48mqlVzSLx3D9avTTQLgdTFZsqa3nVJvpX6/PrNekfGuPseh16za3enq7nR126crLT1dJeg85L8GKPxyABKSbey2R+/utUf9wQ5kI4ojpLIGxLfepr90kSpd9l4nxXBFQC5R0xFkWaEdONExWHCswYzwa/wQ0seCXKpKDz6ZklKmxc5GxaOl2IY+VyA3PWogDrhRLtegQlottpMdL9ORhNyRhMZRGfZGObCN3hhYo6WAeDknGWmWlEsPzyU5u1RuGQwuFb4aBhexK6NcH9miXGJHi8g1I6GloBQtIE9UjgWXkBdU0vAvJZZFVVqYS4lJBxJQQrwuo0V8hW7nwhLJWER9Izh0/eqIJAJarFZ5EsqVF1QsJTIBSXkflWT5Ag3l0zQSWQn9v110ib7/l2+60E3uttDtXWFJhaXrTCaHAJ0eZe9uEgIfcWaFNjAqLcZIqtZSbIjHObcbLElpL2Pd3ZdWvS+9/nHxv3KVirJnDxnq6RIXUFrVZ6iJ9q5/emNdCIuqqr1w4NrCz9VebqRuyQzIj4JpDFUdTDsIADXQR4SVX/H2He+kV232xthsqvbEIlbDGo+buqk1zcakaTdb662xblkAhZhRiuCpCXqkpc9gqnWi0Zwjq2dPlg5M76iiNe5gpkif9YCn2F4Vp7i0jbedIIwe0cIuvjjlMKUccjD4yNA54nvE24eGJggggOTOUG7USeqJ+Ptx3+07U6fi0x81yU95IxAGsxnHdlUXFA64e+Q8wkiyADhg/F2AHPx1XBVrfFfBoSbVT2wN43FlcyhR3gc+DaybaW/ZABlvrs0eYzvuGwyAAcWbmuh5oXN0HFVdV73VapA1otf1iWXVV6FRB6A3rtvmpKWp6qRhN3X6ilYYh8LhkLOKndBy44Sx6VbXQ4U/pzH+A08GfIqHMwAA</t>
+          <t>sjEAAB+LCAAAAAAAAAPtWltvG8cV/isLPiVAqdklJVsSxhvwIslESdEQ6dpKUQTL3aG49XKX3YskvqVAixRpiqIonCK9ok8pCtQ12gRI7V7+S2DJ7lP/Qs/M7OzMLpeWKKtIAygwYs65zJw5c+ac74wXv3M69bRjEkZu4N+pGGt6RSO+HTiuf3SnksTjqnGr8o6Jd05t4t2zQmtKYhDWQMuPtk8j905lEsezbYROTk7WTuprQXiEarpuoIe97sCekKlVdf0otnybVDIt52KtiolbzrRHYsuxYotr3ql0Bp21FnHtNtB6lm8dkXCtmUSuT6Jox4/d2CUR1QyJFZNWu/ctvjGztnZrzcBogS4lm4nrOVwuJ8npqRwsS4bulJg13dis6pvVujE09G1jY3tja+32+ua7QjETxF0rigckPHZtRhjE1nTG1PXNumHoxsbGFkalQjCXdICJ+55zQI7diDgt4nnRSh5B6QE27Bh2vZozdYwU3XSiq5uwF1qzydCNPbKaGQe9pjb1U1vkJCbeDUJig/+uZNI+OemHqVuHsy5whxM3jOdta77yXPcjEvZn1EmrqZq4HfhxwyNhfH8GZ00cCAVgmHGYEIyWMKVS241s+O36CXHMseVFqlKOiR8E4aNoZtlkH+4xonOc+F5gORBwsRvFrh3JCRY4+F4YzGBKWL0ZeM4uTJuaWMLIpu744GO6bjMIHhVnzzMxO1Z2wHCoUysW4gt0PJgEJ33fmw+SUWSH7og47aaQLuVheiNT7VYSxcEUrJAkzGkKZQ7/wQ0sknGb2O7U8u554MXIrMMsOQJuJHEwduNW4CVTP3NngYofwI6G5DTbYTbGfThdnzo98Du+kOduLmXlFQ6Ck2zNRQZzgkJuRLYIskVGUbgNNHF8ixx2InSXu64HBUI9C4Waj4rBhJC4NCQ4B9NcuEtLjtmc0zUxkhQMkQnhDVTT2Nq6XdUN+DPU9W32B1bO2HjHd9gPKDC3qkaNJm0pJ5h4P5n2R3CFj9meTAN4BRKGXXhNz/IfAfWBG0/2G8L6Eg7me14qv8jDcFlnnjVn5MwvKg13fNtLHMJzQMcfs6CktvFjXMrGC6Qu3GoTW/58OJ9BKo7c7Rh+3KlAcd6O4hDKf8W0g8SPwzlNFhilohfpRMnIZwtY3qV1xiH5XgKoY76b+HYrcC6/msO9c99348tbGCQhz4CXV2Heo7kwidqEZhWW5y+tb6+ypyhcSXzqk2ngu/blvQ1OptY7V9hIJG6VooGWxFabjK3EA1wTQ/k5kpWlQMaN6FFRRiXh+6EnkoNJUWMEsNF2pms2FFYKjdbsYEoJCNDagwFGqjxFBzbZ8Y+6ln+UQP3NLmCRnqUmWjqGoeVHdDtZuS1kqXIhLC40hwEmv+X9hHmM3/IAuBgV5PCQTGdBaHk9cIy7m55PiiWgTPeseJKOIO17xBZORlI108pbJgy/SIzlb74NejPSfFIgMiG6Fw5QpYykYbrLHsSv17I8dxTy9COqXBkPDkwCJ5Go6OZWBFHiDKBJgcL0TTKnyFUOUjoLWUMweADTjGMODtY3axt6vQZFn44x2/EBsTxtB6I+JlrHPyZRPAW1be2ARK4Dv1zL29bukhFxoVowF6X5emVtVQ/vioTITGmAvXlKXgBK8ZEL+XZRMONIBfOQWKE3VwT5VruBDXLnP/rX2a+fvnj26fmHj199/oP//P2XL/7x07MnP4Qf53/569lHv+Db5MJ4aI08wgwaNjc39fo6xFlGwtS5iKFGJ7FjRjs8ZGAxG+O06WGD1k6ntddtsnySEYU6z72I9lPzIJHDAd8EW4gdKRKRwEXMochP6TjHVXK5SfubY5KXVvnLFLkvXj7/9OXzPy3VTh2WwywbFItcjFkMY0Euwyy0b+RtgehK16v6RrVWU4QLMvgAmmvoAjI/dRyzbuhbeq2uG1kud7JALhMqstKZhtYRKuhxUovjiCwE1LFgssAfwhXJ2PwqKIM0RD//8as/P85Jpd5NKflZwDhW7+liSAzY1PsHQ23Qv3/Q2tGGOwMaJ5KnyPHJXyOcrp7dp1xQ+X5ied/QiE8fVLQKNAsVLRhrxLIn2hxuonIPc8FWRuULXXHKopV7YZDM+IkoCpJaIpllk1KNklzDeMyfC0lHskrEua1nf/usTCHdSFsiv+xtQKXhHIeTFH56az/554svPnjx7Nn505+dffH93AzpOlnLDHEOt0kdZmEPKS+tNwUKfjBgznykv6fUl5RIO457gevHkWncYs1GOsKgatDZ2N+4M4WSxyZm/gJ6gYLvWtHOaZxebHMfozwB7JxZUG0D2ZZlBJ7DpV///Zvfnv/qs/OPn7764I9nH/7h7KOPXz7/3asnv+e37vzx0/OfPEmzfLEQMFtos8dBoMaeDmyN3kaN1m7ty/d/rvlBrAHk0BKWkb58/xNlMmooAydyZoB0mSF5ExZEVWWqpymmZDbk9DIVDgBatITVM4m0iAUz15aLvFulU9F7xxhvdYbVJCJaAGjqbdhJXlgqX1YvVeEl9d5tvWbUUi63hm5hZEWK6/e8YAQgQzBYb14QyWm9XkHKsvX2uv1moytFuBH90IFWXqcPDPQHFpCSlpROJEYi1BQKcAH42YlHn1MWxBZZ2cxKGkPpu8S44dD0Z+o6a/zz9TEngVtJGHJA5Kfv3INkBmBYvF4t57MnPQX/7nOsqiJiOe6083wYK1wohHk2JTA+S00pi6epTkSfQDic3aeukUPg5Z4BwR3pUzZHWseAK0NE885OGAZhafKRHCHWAyQNGQVJj2cy7Ew56nbkWQmCSHhfOfrWvt3t77319nfeDIXLWb4maDy/7RtUfoPKb1D5DSq/QeUqBjeWo3LjvRrZXHc2b69XybimV9fr+q3qFiH1at1eJ7Ztb9WdmvMVAHZxaiUP+UttuHyVukoAvC4mS870ulPqtbyqvT6zXpDxLu710GtO7aYDu+nArrsDMxY7MP5PBYV/QICE5Ji9xvDufmMIcBGyEcURSlljGJL+w4xS6eSnPhmGKwJ1hZpZILNCI3TjCczg2v0Z4U/9EaSPBblMlTZEUkkr02I9U7H9TK9hwBXIVVsQxIE3yuUaVEirxbG48SodKQgeKWgclWFvlAPb6I2BNVoKiJdzhKUyKZc21SU5u1RuGQwuFb4YBhexK6NcHtmiXGJHi8hVktBSUIoWkCcqx4JLyAsqWfiXEsuiKivMpUSxgAKUEK/LaBFfoet51EQqFtHfCA5dvjoihYAWq1WehHLlBRVLiUpASt5HJVm+QEP5NI3SrIS+zo9h6dr/z69h6CrvX+j6nrmUItN2x+NDgFEP5Xc6gsAtlrPQAUalhRkplVuJjfRjnusNFlHmy1g3b6qrvqlevnX8nzy3IvmZhERAbeIBYlv1s1Wh3QuOr6wLYbGqaifqe07q59W+9MjcIidQvy2mMfSmnxbzOGyEIeAK+iniyt8Ci++EDiz/aEVr+FaYIv3gBlYXZd8No/ghrZ/pL045zCiHHHM9NGscWD3k40PorTkBBJA6O8qZKW51zL/wDryuO3VX/ApHF1c/Pwn4cjbjEKqzWqTQPnKfnEI3rswA5Xb0Xajs/EO1VWbjAQu9Q6ZPv6mM3KNJvKpht0cWcchIr9ojUquuO/omv/+GAf+37FpN1zfoF5np5JBUXHKy4iJIHJhsx8z/AoKD6tmyMQAA</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -103,7 +103,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -400,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,7 +418,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Real Estate Investment: Residential: Hebei</t>
+          <t>Real Estate Investment: Residential: Hebei [LOG()]</t>
         </is>
       </c>
     </row>
@@ -559,7 +558,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -583,13 +582,101 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
+        <v>35765</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3271.34</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8.092954965884701</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>36495</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6384.48</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8.761625324273099</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>36861</v>
+      </c>
+      <c r="B15" s="6">
+        <v>7111.74</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8.869502218595221</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>37226</v>
+      </c>
+      <c r="B16" s="6">
+        <v>8354.02</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9.030498139116981</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>37591</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10540.67</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.262996387437459</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>37956</v>
+      </c>
+      <c r="B18" s="6">
+        <v>16421.36</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9.706338205398721</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>38322</v>
+      </c>
+      <c r="B19" s="6">
+        <v>22352.63</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10.0146992664968</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B20" s="6">
+        <v>29205.22</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10.2821027394027</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
         <v>39052</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B21" s="6">
         <v>37962.97</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C21" s="6">
         <v>10.5443664899162</v>
       </c>
     </row>
@@ -597,48 +684,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>13</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>13</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760A84CC-4178-458F-A3CC-541C53DDA0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>